--- a/public/files/template_peserta.xlsx
+++ b/public/files/template_peserta.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\laragon\www\ssci\storage\app\files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP APTIKA\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BD72AD2-567E-4A1C-8C65-DE5E7E60E72F}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49864B2D-0FD8-46E3-A327-5F3D4A77FC46}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11625" xr2:uid="{2AE6FB8C-FC55-453D-9336-07A394B3B4C3}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="64">
   <si>
     <t>skor_tka</t>
   </si>
@@ -190,6 +190,33 @@
   </si>
   <si>
     <t>sejarah_skor</t>
+  </si>
+  <si>
+    <t>XK2YC-21122020</t>
+  </si>
+  <si>
+    <t>BERNADETHA C. D. C</t>
+  </si>
+  <si>
+    <t>ANGGI RAHMANINGRUM</t>
+  </si>
+  <si>
+    <t>ARIF HENDIARTA</t>
+  </si>
+  <si>
+    <t>BAGAS ARYA SETHA</t>
+  </si>
+  <si>
+    <t>CHRISTINA DYAH P</t>
+  </si>
+  <si>
+    <t>CHRISTOPHER ALMA SURANTO</t>
+  </si>
+  <si>
+    <t>DHEA SYAFIRA LARASATI</t>
+  </si>
+  <si>
+    <t>TALITHA ZAHRA KIRANA</t>
   </si>
 </sst>
 </file>
@@ -542,9 +569,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A22A72F4-16A5-4810-83AF-0A6EB885B6CD}">
-  <dimension ref="A1:BC1"/>
+  <dimension ref="A1:BC9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="AA10" sqref="AA10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -767,6 +796,1342 @@
         <v>54</v>
       </c>
     </row>
+    <row r="2" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2">
+        <v>595</v>
+      </c>
+      <c r="D2">
+        <v>1012</v>
+      </c>
+      <c r="E2">
+        <v>8</v>
+      </c>
+      <c r="F2">
+        <v>1382</v>
+      </c>
+      <c r="G2">
+        <v>7</v>
+      </c>
+      <c r="H2">
+        <v>12</v>
+      </c>
+      <c r="I2">
+        <v>3</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>388</v>
+      </c>
+      <c r="L2">
+        <v>11</v>
+      </c>
+      <c r="M2">
+        <v>4</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>470</v>
+      </c>
+      <c r="P2">
+        <v>4</v>
+      </c>
+      <c r="Q2">
+        <v>11</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>136</v>
+      </c>
+      <c r="T2">
+        <v>10</v>
+      </c>
+      <c r="U2">
+        <v>5</v>
+      </c>
+      <c r="V2">
+        <v>0</v>
+      </c>
+      <c r="W2">
+        <v>388</v>
+      </c>
+      <c r="X2">
+        <v>1</v>
+      </c>
+      <c r="Y2">
+        <v>14</v>
+      </c>
+      <c r="Z2">
+        <v>0</v>
+      </c>
+      <c r="AA2">
+        <v>50</v>
+      </c>
+      <c r="AB2">
+        <v>7</v>
+      </c>
+      <c r="AC2">
+        <v>8</v>
+      </c>
+      <c r="AD2">
+        <v>0</v>
+      </c>
+      <c r="AE2">
+        <v>270</v>
+      </c>
+      <c r="AF2">
+        <v>15</v>
+      </c>
+      <c r="AG2">
+        <v>0</v>
+      </c>
+      <c r="AH2">
+        <v>0</v>
+      </c>
+      <c r="AI2">
+        <v>574</v>
+      </c>
+      <c r="AJ2">
+        <v>3</v>
+      </c>
+      <c r="AK2">
+        <v>12</v>
+      </c>
+      <c r="AL2">
+        <v>0</v>
+      </c>
+      <c r="AM2">
+        <v>118</v>
+      </c>
+      <c r="AN2">
+        <v>0</v>
+      </c>
+      <c r="AO2">
+        <v>0</v>
+      </c>
+      <c r="AP2">
+        <v>0</v>
+      </c>
+      <c r="AQ2">
+        <v>0</v>
+      </c>
+      <c r="AR2">
+        <v>0</v>
+      </c>
+      <c r="AS2">
+        <v>0</v>
+      </c>
+      <c r="AT2">
+        <v>0</v>
+      </c>
+      <c r="AU2">
+        <v>0</v>
+      </c>
+      <c r="AV2">
+        <v>0</v>
+      </c>
+      <c r="AW2">
+        <v>0</v>
+      </c>
+      <c r="AX2">
+        <v>0</v>
+      </c>
+      <c r="AY2">
+        <v>0</v>
+      </c>
+      <c r="AZ2">
+        <v>0</v>
+      </c>
+      <c r="BA2">
+        <v>0</v>
+      </c>
+      <c r="BB2">
+        <v>0</v>
+      </c>
+      <c r="BC2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C3">
+        <v>596</v>
+      </c>
+      <c r="D3">
+        <v>1013</v>
+      </c>
+      <c r="E3">
+        <v>7</v>
+      </c>
+      <c r="F3">
+        <v>1382</v>
+      </c>
+      <c r="G3">
+        <v>7</v>
+      </c>
+      <c r="H3">
+        <v>12</v>
+      </c>
+      <c r="I3">
+        <v>3</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>388</v>
+      </c>
+      <c r="L3">
+        <v>11</v>
+      </c>
+      <c r="M3">
+        <v>4</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>470</v>
+      </c>
+      <c r="P3">
+        <v>4</v>
+      </c>
+      <c r="Q3">
+        <v>11</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>136</v>
+      </c>
+      <c r="T3">
+        <v>10</v>
+      </c>
+      <c r="U3">
+        <v>5</v>
+      </c>
+      <c r="V3">
+        <v>0</v>
+      </c>
+      <c r="W3">
+        <v>388</v>
+      </c>
+      <c r="X3">
+        <v>1</v>
+      </c>
+      <c r="Y3">
+        <v>14</v>
+      </c>
+      <c r="Z3">
+        <v>0</v>
+      </c>
+      <c r="AA3">
+        <v>51</v>
+      </c>
+      <c r="AB3">
+        <v>7</v>
+      </c>
+      <c r="AC3">
+        <v>8</v>
+      </c>
+      <c r="AD3">
+        <v>0</v>
+      </c>
+      <c r="AE3">
+        <v>270</v>
+      </c>
+      <c r="AF3">
+        <v>15</v>
+      </c>
+      <c r="AG3">
+        <v>0</v>
+      </c>
+      <c r="AH3">
+        <v>0</v>
+      </c>
+      <c r="AI3">
+        <v>574</v>
+      </c>
+      <c r="AJ3">
+        <v>3</v>
+      </c>
+      <c r="AK3">
+        <v>12</v>
+      </c>
+      <c r="AL3">
+        <v>0</v>
+      </c>
+      <c r="AM3">
+        <v>118</v>
+      </c>
+      <c r="AN3">
+        <v>0</v>
+      </c>
+      <c r="AO3">
+        <v>0</v>
+      </c>
+      <c r="AP3">
+        <v>0</v>
+      </c>
+      <c r="AQ3">
+        <v>0</v>
+      </c>
+      <c r="AR3">
+        <v>0</v>
+      </c>
+      <c r="AS3">
+        <v>0</v>
+      </c>
+      <c r="AT3">
+        <v>0</v>
+      </c>
+      <c r="AU3">
+        <v>0</v>
+      </c>
+      <c r="AV3">
+        <v>0</v>
+      </c>
+      <c r="AW3">
+        <v>0</v>
+      </c>
+      <c r="AX3">
+        <v>0</v>
+      </c>
+      <c r="AY3">
+        <v>0</v>
+      </c>
+      <c r="AZ3">
+        <v>0</v>
+      </c>
+      <c r="BA3">
+        <v>0</v>
+      </c>
+      <c r="BB3">
+        <v>0</v>
+      </c>
+      <c r="BC3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C4">
+        <v>597</v>
+      </c>
+      <c r="D4">
+        <v>1014</v>
+      </c>
+      <c r="E4">
+        <v>6</v>
+      </c>
+      <c r="F4">
+        <v>1382</v>
+      </c>
+      <c r="G4">
+        <v>7</v>
+      </c>
+      <c r="H4">
+        <v>12</v>
+      </c>
+      <c r="I4">
+        <v>3</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>388</v>
+      </c>
+      <c r="L4">
+        <v>11</v>
+      </c>
+      <c r="M4">
+        <v>4</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>470</v>
+      </c>
+      <c r="P4">
+        <v>4</v>
+      </c>
+      <c r="Q4">
+        <v>11</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>136</v>
+      </c>
+      <c r="T4">
+        <v>10</v>
+      </c>
+      <c r="U4">
+        <v>5</v>
+      </c>
+      <c r="V4">
+        <v>0</v>
+      </c>
+      <c r="W4">
+        <v>388</v>
+      </c>
+      <c r="X4">
+        <v>1</v>
+      </c>
+      <c r="Y4">
+        <v>14</v>
+      </c>
+      <c r="Z4">
+        <v>0</v>
+      </c>
+      <c r="AA4">
+        <v>52</v>
+      </c>
+      <c r="AB4">
+        <v>7</v>
+      </c>
+      <c r="AC4">
+        <v>8</v>
+      </c>
+      <c r="AD4">
+        <v>0</v>
+      </c>
+      <c r="AE4">
+        <v>270</v>
+      </c>
+      <c r="AF4">
+        <v>15</v>
+      </c>
+      <c r="AG4">
+        <v>0</v>
+      </c>
+      <c r="AH4">
+        <v>0</v>
+      </c>
+      <c r="AI4">
+        <v>574</v>
+      </c>
+      <c r="AJ4">
+        <v>3</v>
+      </c>
+      <c r="AK4">
+        <v>12</v>
+      </c>
+      <c r="AL4">
+        <v>0</v>
+      </c>
+      <c r="AM4">
+        <v>118</v>
+      </c>
+      <c r="AN4">
+        <v>0</v>
+      </c>
+      <c r="AO4">
+        <v>0</v>
+      </c>
+      <c r="AP4">
+        <v>0</v>
+      </c>
+      <c r="AQ4">
+        <v>0</v>
+      </c>
+      <c r="AR4">
+        <v>0</v>
+      </c>
+      <c r="AS4">
+        <v>0</v>
+      </c>
+      <c r="AT4">
+        <v>0</v>
+      </c>
+      <c r="AU4">
+        <v>0</v>
+      </c>
+      <c r="AV4">
+        <v>0</v>
+      </c>
+      <c r="AW4">
+        <v>0</v>
+      </c>
+      <c r="AX4">
+        <v>0</v>
+      </c>
+      <c r="AY4">
+        <v>0</v>
+      </c>
+      <c r="AZ4">
+        <v>0</v>
+      </c>
+      <c r="BA4">
+        <v>0</v>
+      </c>
+      <c r="BB4">
+        <v>0</v>
+      </c>
+      <c r="BC4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C5">
+        <v>599</v>
+      </c>
+      <c r="D5">
+        <v>1015</v>
+      </c>
+      <c r="E5">
+        <v>5</v>
+      </c>
+      <c r="F5">
+        <v>1382</v>
+      </c>
+      <c r="G5">
+        <v>7</v>
+      </c>
+      <c r="H5">
+        <v>12</v>
+      </c>
+      <c r="I5">
+        <v>3</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>388</v>
+      </c>
+      <c r="L5">
+        <v>11</v>
+      </c>
+      <c r="M5">
+        <v>4</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>470</v>
+      </c>
+      <c r="P5">
+        <v>4</v>
+      </c>
+      <c r="Q5">
+        <v>11</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>136</v>
+      </c>
+      <c r="T5">
+        <v>10</v>
+      </c>
+      <c r="U5">
+        <v>5</v>
+      </c>
+      <c r="V5">
+        <v>0</v>
+      </c>
+      <c r="W5">
+        <v>388</v>
+      </c>
+      <c r="X5">
+        <v>1</v>
+      </c>
+      <c r="Y5">
+        <v>14</v>
+      </c>
+      <c r="Z5">
+        <v>0</v>
+      </c>
+      <c r="AA5">
+        <v>53</v>
+      </c>
+      <c r="AB5">
+        <v>7</v>
+      </c>
+      <c r="AC5">
+        <v>8</v>
+      </c>
+      <c r="AD5">
+        <v>0</v>
+      </c>
+      <c r="AE5">
+        <v>270</v>
+      </c>
+      <c r="AF5">
+        <v>15</v>
+      </c>
+      <c r="AG5">
+        <v>0</v>
+      </c>
+      <c r="AH5">
+        <v>0</v>
+      </c>
+      <c r="AI5">
+        <v>574</v>
+      </c>
+      <c r="AJ5">
+        <v>3</v>
+      </c>
+      <c r="AK5">
+        <v>12</v>
+      </c>
+      <c r="AL5">
+        <v>0</v>
+      </c>
+      <c r="AM5">
+        <v>118</v>
+      </c>
+      <c r="AN5">
+        <v>0</v>
+      </c>
+      <c r="AO5">
+        <v>0</v>
+      </c>
+      <c r="AP5">
+        <v>0</v>
+      </c>
+      <c r="AQ5">
+        <v>0</v>
+      </c>
+      <c r="AR5">
+        <v>0</v>
+      </c>
+      <c r="AS5">
+        <v>0</v>
+      </c>
+      <c r="AT5">
+        <v>0</v>
+      </c>
+      <c r="AU5">
+        <v>0</v>
+      </c>
+      <c r="AV5">
+        <v>0</v>
+      </c>
+      <c r="AW5">
+        <v>0</v>
+      </c>
+      <c r="AX5">
+        <v>0</v>
+      </c>
+      <c r="AY5">
+        <v>0</v>
+      </c>
+      <c r="AZ5">
+        <v>0</v>
+      </c>
+      <c r="BA5">
+        <v>0</v>
+      </c>
+      <c r="BB5">
+        <v>0</v>
+      </c>
+      <c r="BC5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C6">
+        <v>560</v>
+      </c>
+      <c r="D6">
+        <v>1016</v>
+      </c>
+      <c r="E6">
+        <v>4</v>
+      </c>
+      <c r="F6">
+        <v>1382</v>
+      </c>
+      <c r="G6">
+        <v>7</v>
+      </c>
+      <c r="H6">
+        <v>12</v>
+      </c>
+      <c r="I6">
+        <v>3</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>388</v>
+      </c>
+      <c r="L6">
+        <v>11</v>
+      </c>
+      <c r="M6">
+        <v>4</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>470</v>
+      </c>
+      <c r="P6">
+        <v>4</v>
+      </c>
+      <c r="Q6">
+        <v>11</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>136</v>
+      </c>
+      <c r="T6">
+        <v>10</v>
+      </c>
+      <c r="U6">
+        <v>5</v>
+      </c>
+      <c r="V6">
+        <v>0</v>
+      </c>
+      <c r="W6">
+        <v>388</v>
+      </c>
+      <c r="X6">
+        <v>1</v>
+      </c>
+      <c r="Y6">
+        <v>14</v>
+      </c>
+      <c r="Z6">
+        <v>0</v>
+      </c>
+      <c r="AA6">
+        <v>54</v>
+      </c>
+      <c r="AB6">
+        <v>7</v>
+      </c>
+      <c r="AC6">
+        <v>8</v>
+      </c>
+      <c r="AD6">
+        <v>0</v>
+      </c>
+      <c r="AE6">
+        <v>270</v>
+      </c>
+      <c r="AF6">
+        <v>15</v>
+      </c>
+      <c r="AG6">
+        <v>0</v>
+      </c>
+      <c r="AH6">
+        <v>0</v>
+      </c>
+      <c r="AI6">
+        <v>574</v>
+      </c>
+      <c r="AJ6">
+        <v>3</v>
+      </c>
+      <c r="AK6">
+        <v>12</v>
+      </c>
+      <c r="AL6">
+        <v>0</v>
+      </c>
+      <c r="AM6">
+        <v>118</v>
+      </c>
+      <c r="AN6">
+        <v>0</v>
+      </c>
+      <c r="AO6">
+        <v>0</v>
+      </c>
+      <c r="AP6">
+        <v>0</v>
+      </c>
+      <c r="AQ6">
+        <v>0</v>
+      </c>
+      <c r="AR6">
+        <v>0</v>
+      </c>
+      <c r="AS6">
+        <v>0</v>
+      </c>
+      <c r="AT6">
+        <v>0</v>
+      </c>
+      <c r="AU6">
+        <v>0</v>
+      </c>
+      <c r="AV6">
+        <v>0</v>
+      </c>
+      <c r="AW6">
+        <v>0</v>
+      </c>
+      <c r="AX6">
+        <v>0</v>
+      </c>
+      <c r="AY6">
+        <v>0</v>
+      </c>
+      <c r="AZ6">
+        <v>0</v>
+      </c>
+      <c r="BA6">
+        <v>0</v>
+      </c>
+      <c r="BB6">
+        <v>0</v>
+      </c>
+      <c r="BC6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>55</v>
+      </c>
+      <c r="B7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C7">
+        <v>561</v>
+      </c>
+      <c r="D7">
+        <v>1017</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1382</v>
+      </c>
+      <c r="G7">
+        <v>7</v>
+      </c>
+      <c r="H7">
+        <v>12</v>
+      </c>
+      <c r="I7">
+        <v>3</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>388</v>
+      </c>
+      <c r="L7">
+        <v>11</v>
+      </c>
+      <c r="M7">
+        <v>4</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>470</v>
+      </c>
+      <c r="P7">
+        <v>4</v>
+      </c>
+      <c r="Q7">
+        <v>11</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>136</v>
+      </c>
+      <c r="T7">
+        <v>10</v>
+      </c>
+      <c r="U7">
+        <v>5</v>
+      </c>
+      <c r="V7">
+        <v>0</v>
+      </c>
+      <c r="W7">
+        <v>388</v>
+      </c>
+      <c r="X7">
+        <v>1</v>
+      </c>
+      <c r="Y7">
+        <v>14</v>
+      </c>
+      <c r="Z7">
+        <v>0</v>
+      </c>
+      <c r="AA7">
+        <v>55</v>
+      </c>
+      <c r="AB7">
+        <v>7</v>
+      </c>
+      <c r="AC7">
+        <v>8</v>
+      </c>
+      <c r="AD7">
+        <v>0</v>
+      </c>
+      <c r="AE7">
+        <v>270</v>
+      </c>
+      <c r="AF7">
+        <v>15</v>
+      </c>
+      <c r="AG7">
+        <v>0</v>
+      </c>
+      <c r="AH7">
+        <v>0</v>
+      </c>
+      <c r="AI7">
+        <v>574</v>
+      </c>
+      <c r="AJ7">
+        <v>3</v>
+      </c>
+      <c r="AK7">
+        <v>12</v>
+      </c>
+      <c r="AL7">
+        <v>0</v>
+      </c>
+      <c r="AM7">
+        <v>118</v>
+      </c>
+      <c r="AN7">
+        <v>0</v>
+      </c>
+      <c r="AO7">
+        <v>0</v>
+      </c>
+      <c r="AP7">
+        <v>0</v>
+      </c>
+      <c r="AQ7">
+        <v>0</v>
+      </c>
+      <c r="AR7">
+        <v>0</v>
+      </c>
+      <c r="AS7">
+        <v>0</v>
+      </c>
+      <c r="AT7">
+        <v>0</v>
+      </c>
+      <c r="AU7">
+        <v>0</v>
+      </c>
+      <c r="AV7">
+        <v>0</v>
+      </c>
+      <c r="AW7">
+        <v>0</v>
+      </c>
+      <c r="AX7">
+        <v>0</v>
+      </c>
+      <c r="AY7">
+        <v>0</v>
+      </c>
+      <c r="AZ7">
+        <v>0</v>
+      </c>
+      <c r="BA7">
+        <v>0</v>
+      </c>
+      <c r="BB7">
+        <v>0</v>
+      </c>
+      <c r="BC7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>55</v>
+      </c>
+      <c r="B8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C8">
+        <v>562</v>
+      </c>
+      <c r="D8">
+        <v>1018</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>1382</v>
+      </c>
+      <c r="G8">
+        <v>7</v>
+      </c>
+      <c r="H8">
+        <v>12</v>
+      </c>
+      <c r="I8">
+        <v>3</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>388</v>
+      </c>
+      <c r="L8">
+        <v>11</v>
+      </c>
+      <c r="M8">
+        <v>4</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>470</v>
+      </c>
+      <c r="P8">
+        <v>4</v>
+      </c>
+      <c r="Q8">
+        <v>11</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>136</v>
+      </c>
+      <c r="T8">
+        <v>10</v>
+      </c>
+      <c r="U8">
+        <v>5</v>
+      </c>
+      <c r="V8">
+        <v>0</v>
+      </c>
+      <c r="W8">
+        <v>388</v>
+      </c>
+      <c r="X8">
+        <v>1</v>
+      </c>
+      <c r="Y8">
+        <v>14</v>
+      </c>
+      <c r="Z8">
+        <v>0</v>
+      </c>
+      <c r="AA8">
+        <v>56</v>
+      </c>
+      <c r="AB8">
+        <v>7</v>
+      </c>
+      <c r="AC8">
+        <v>8</v>
+      </c>
+      <c r="AD8">
+        <v>0</v>
+      </c>
+      <c r="AE8">
+        <v>270</v>
+      </c>
+      <c r="AF8">
+        <v>15</v>
+      </c>
+      <c r="AG8">
+        <v>0</v>
+      </c>
+      <c r="AH8">
+        <v>0</v>
+      </c>
+      <c r="AI8">
+        <v>574</v>
+      </c>
+      <c r="AJ8">
+        <v>3</v>
+      </c>
+      <c r="AK8">
+        <v>12</v>
+      </c>
+      <c r="AL8">
+        <v>0</v>
+      </c>
+      <c r="AM8">
+        <v>118</v>
+      </c>
+      <c r="AN8">
+        <v>0</v>
+      </c>
+      <c r="AO8">
+        <v>0</v>
+      </c>
+      <c r="AP8">
+        <v>0</v>
+      </c>
+      <c r="AQ8">
+        <v>0</v>
+      </c>
+      <c r="AR8">
+        <v>0</v>
+      </c>
+      <c r="AS8">
+        <v>0</v>
+      </c>
+      <c r="AT8">
+        <v>0</v>
+      </c>
+      <c r="AU8">
+        <v>0</v>
+      </c>
+      <c r="AV8">
+        <v>0</v>
+      </c>
+      <c r="AW8">
+        <v>0</v>
+      </c>
+      <c r="AX8">
+        <v>0</v>
+      </c>
+      <c r="AY8">
+        <v>0</v>
+      </c>
+      <c r="AZ8">
+        <v>0</v>
+      </c>
+      <c r="BA8">
+        <v>0</v>
+      </c>
+      <c r="BB8">
+        <v>0</v>
+      </c>
+      <c r="BC8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>55</v>
+      </c>
+      <c r="B9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C9">
+        <v>563</v>
+      </c>
+      <c r="D9">
+        <v>1019</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>1382</v>
+      </c>
+      <c r="G9">
+        <v>7</v>
+      </c>
+      <c r="H9">
+        <v>12</v>
+      </c>
+      <c r="I9">
+        <v>3</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>388</v>
+      </c>
+      <c r="L9">
+        <v>11</v>
+      </c>
+      <c r="M9">
+        <v>4</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>470</v>
+      </c>
+      <c r="P9">
+        <v>4</v>
+      </c>
+      <c r="Q9">
+        <v>11</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>136</v>
+      </c>
+      <c r="T9">
+        <v>10</v>
+      </c>
+      <c r="U9">
+        <v>5</v>
+      </c>
+      <c r="V9">
+        <v>0</v>
+      </c>
+      <c r="W9">
+        <v>388</v>
+      </c>
+      <c r="X9">
+        <v>1</v>
+      </c>
+      <c r="Y9">
+        <v>14</v>
+      </c>
+      <c r="Z9">
+        <v>0</v>
+      </c>
+      <c r="AA9">
+        <v>57</v>
+      </c>
+      <c r="AB9">
+        <v>7</v>
+      </c>
+      <c r="AC9">
+        <v>8</v>
+      </c>
+      <c r="AD9">
+        <v>0</v>
+      </c>
+      <c r="AE9">
+        <v>270</v>
+      </c>
+      <c r="AF9">
+        <v>15</v>
+      </c>
+      <c r="AG9">
+        <v>0</v>
+      </c>
+      <c r="AH9">
+        <v>0</v>
+      </c>
+      <c r="AI9">
+        <v>574</v>
+      </c>
+      <c r="AJ9">
+        <v>3</v>
+      </c>
+      <c r="AK9">
+        <v>12</v>
+      </c>
+      <c r="AL9">
+        <v>0</v>
+      </c>
+      <c r="AM9">
+        <v>118</v>
+      </c>
+      <c r="AN9">
+        <v>0</v>
+      </c>
+      <c r="AO9">
+        <v>0</v>
+      </c>
+      <c r="AP9">
+        <v>0</v>
+      </c>
+      <c r="AQ9">
+        <v>0</v>
+      </c>
+      <c r="AR9">
+        <v>0</v>
+      </c>
+      <c r="AS9">
+        <v>0</v>
+      </c>
+      <c r="AT9">
+        <v>0</v>
+      </c>
+      <c r="AU9">
+        <v>0</v>
+      </c>
+      <c r="AV9">
+        <v>0</v>
+      </c>
+      <c r="AW9">
+        <v>0</v>
+      </c>
+      <c r="AX9">
+        <v>0</v>
+      </c>
+      <c r="AY9">
+        <v>0</v>
+      </c>
+      <c r="AZ9">
+        <v>0</v>
+      </c>
+      <c r="BA9">
+        <v>0</v>
+      </c>
+      <c r="BB9">
+        <v>0</v>
+      </c>
+      <c r="BC9">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
